--- a/excel_files/playtv_plans_all_counter.xlsx
+++ b/excel_files/playtv_plans_all_counter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\playtv-compare-plans\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dimitar\Coding\playtv-compare-plans\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="153">
   <si>
     <t>БНТ 1</t>
   </si>
@@ -248,9 +248,6 @@
     <t>Travel</t>
   </si>
   <si>
-    <t>Travelxp</t>
-  </si>
-  <si>
     <t>AGRO TV</t>
   </si>
   <si>
@@ -431,9 +428,6 @@
     <t>FAST BOX &amp; FUN</t>
   </si>
   <si>
-    <t>EDGE</t>
-  </si>
-  <si>
     <t>GAMETOON</t>
   </si>
   <si>
@@ -443,71 +437,87 @@
     <t>WNESS</t>
   </si>
   <si>
-    <t>105TV (55HD) / канала
+    <t>Super Play</t>
+  </si>
+  <si>
+    <t>TV999</t>
+  </si>
+  <si>
+    <t>GALAXY</t>
+  </si>
+  <si>
+    <t>DIAMA SPORT2</t>
+  </si>
+  <si>
+    <t>DIAMA SPORT3</t>
+  </si>
+  <si>
+    <t>DIAMA SPORT3 4K</t>
+  </si>
+  <si>
+    <t>Cine.box</t>
+  </si>
+  <si>
+    <t>Action.box</t>
+  </si>
+  <si>
+    <t>Comedy.box</t>
+  </si>
+  <si>
+    <t>DIZI</t>
+  </si>
+  <si>
+    <t>99 (34HD) / канала
 до 4 екрана
-Период: 3 месецa
-18.00 лв.*
- * цена за месец след изтичане на промоцията</t>
-  </si>
-  <si>
-    <t>98TV (42HD) / канала
+Период: 1 месец
+9.00 лв.</t>
+  </si>
+  <si>
+    <t>115 (43HD) / канала
 до 4 екрана
-Период: 3 месецa
-18.00 лв.*
- * цена за месец след изтичане на промоцията</t>
-  </si>
-  <si>
-    <t>110TV (43HD) / канала
+Период: 1 месец
+14.00 лв.</t>
+  </si>
+  <si>
+    <t>143 (62HD) / канала
 до 4 екрана
-Период: 3 месеца
-21.00 лв.*
- * цена за месец след изтичане на промоцията</t>
-  </si>
-  <si>
-    <t>139TV (62HD) / канала
-до 4 екранa
-Период: 3 месеца
-33.00 лв.*
- * цена за месец след изтичане на промоцията</t>
-  </si>
-  <si>
-    <t>DIEMA SPORT2</t>
-  </si>
-  <si>
-    <t>DIEMA SPORT3</t>
-  </si>
-  <si>
-    <t>DIEMA SPORT3 4K</t>
-  </si>
-  <si>
-    <t>Play Sport</t>
-  </si>
-  <si>
-    <t>113TV (47HD) / канала
+Период: 12 месеца
+180.00 лв.  15 лв./м</t>
+  </si>
+  <si>
+    <t>143 (62HD) / канала
 до 4 екрана
-Период: 3 месеца
-27.00 лв.*
- * цена за месец след изтичане на промоцията</t>
-  </si>
-  <si>
-    <t>Super Play</t>
-  </si>
-  <si>
-    <t>125TV (62HD) / канала
+Период: 12 месеца
+125.00 лв. 10.42 лв./м</t>
+  </si>
+  <si>
+    <t>106 (55HD) / канала
 до 4 екрана
-Период: 3 месеца
-30.00 лв.*
- * цена за месец след изтичане на промоцията</t>
+Период: 12 месеца
+72.00 лв. 6 лв./м</t>
+  </si>
+  <si>
+    <t>143 (62HD) / канала
+до 4 екрана
+Период: 6 месеца
+59.00 лв.  9.83 лв./м</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -534,16 +544,1120 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="146">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1180,57 +2294,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:F143"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="23" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1274,9 +2388,6 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1295,7 +2406,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1315,7 +2426,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1335,7 +2446,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1355,7 +2466,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1391,6 +2502,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -1468,2231 +2582,2447 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>112</v>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E22" t="s">
         <v>15</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F22" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
         <v>20</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D27" t="s">
         <v>20</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E27" t="s">
         <v>20</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F27" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F56" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E60" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E62" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F62" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D63" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E63" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F63" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E64" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E65" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C66" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D66" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E66" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E67" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D68" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E68" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F68" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D69" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E69" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F69" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E70" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D71" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E71" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C72" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D72" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E72" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F72" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C73" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D73" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E73" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F73" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D74" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E74" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F74" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C75" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D75" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E75" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F75" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D76" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E76" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F76" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C77" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D77" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E77" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F77" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C78" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D78" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E78" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F78" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D79" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E79" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F79" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C80" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D80" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E80" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F80" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D81" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E81" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F81" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D82" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E82" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F82" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D83" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E83" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F83" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D84" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E84" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F84" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D85" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E85" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F85" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D86" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E86" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C87" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D87" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E87" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F87" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C88" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D88" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E88" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F88" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D89" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E89" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F89" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C90" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D90" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E90" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F90" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C91" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D91" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E91" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F91" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C93" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D93" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E93" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F93" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C94" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D94" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E94" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F94" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B95" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C95" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D95" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E95" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F95" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C96" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D96" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E96" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F96" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C97" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D97" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E97" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F97" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B98" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C98" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D98" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E98" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F98" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B99" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C99" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D99" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E99" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F99" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B100" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C100" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D100" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E100" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F100" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B101" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C101" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D101" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E101" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F101" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B102" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C102" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D102" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E102" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F102" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B103" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C103" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D103" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E103" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F103" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104" t="s">
+        <v>95</v>
+      </c>
       <c r="C104" t="s">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="D104" t="s">
+        <v>95</v>
       </c>
       <c r="E104" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F104" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>96</v>
+      </c>
+      <c r="B105" t="s">
+        <v>96</v>
+      </c>
       <c r="C105" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="D105" t="s">
+        <v>96</v>
       </c>
       <c r="E105" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F105" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106" t="s">
+        <v>97</v>
+      </c>
       <c r="C106" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+      <c r="D106" t="s">
+        <v>97</v>
       </c>
       <c r="E106" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F106" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107" t="s">
+        <v>98</v>
+      </c>
       <c r="C107" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="D107" t="s">
+        <v>98</v>
       </c>
       <c r="E107" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F107" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="D108" t="s">
+        <v>99</v>
       </c>
       <c r="E108" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F108" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="D109" t="s">
+        <v>100</v>
       </c>
       <c r="E109" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F109" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="D110" t="s">
+        <v>101</v>
       </c>
       <c r="E110" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F110" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="D111" t="s">
+        <v>102</v>
       </c>
       <c r="E111" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F111" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="D112" t="s">
+        <v>103</v>
       </c>
       <c r="E112" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F112" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="D113" t="s">
+        <v>104</v>
       </c>
       <c r="E113" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F113" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>105</v>
+      </c>
       <c r="D114" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E114" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="F114" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>106</v>
+      </c>
       <c r="D115" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="E115" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="F115" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>107</v>
+      </c>
       <c r="D116" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="E116" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="F116" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>108</v>
+      </c>
       <c r="D117" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="E117" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="F117" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E118" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F118" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E119" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F119" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E120" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F120" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E121" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F121" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F122" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E123" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F123" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E124" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F124" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E125" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F125" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E126" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F126" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E127" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F127" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E128" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F128" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>134</v>
+      </c>
+      <c r="E129" t="s">
+        <v>134</v>
+      </c>
       <c r="F129" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>113</v>
+      <c r="D130" t="s">
+        <v>135</v>
+      </c>
+      <c r="E130" t="s">
+        <v>135</v>
       </c>
       <c r="F130" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>114</v>
+      <c r="D131" t="s">
+        <v>136</v>
+      </c>
+      <c r="E131" t="s">
+        <v>136</v>
       </c>
       <c r="F131" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="D132" t="s">
+        <v>111</v>
+      </c>
+      <c r="E132" t="s">
+        <v>111</v>
       </c>
       <c r="F132" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="D133" t="s">
+        <v>112</v>
+      </c>
+      <c r="E133" t="s">
+        <v>112</v>
       </c>
       <c r="F133" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>117</v>
+        <v>113</v>
+      </c>
+      <c r="D134" t="s">
+        <v>113</v>
+      </c>
+      <c r="E134" t="s">
+        <v>113</v>
       </c>
       <c r="F134" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="D135" t="s">
+        <v>114</v>
+      </c>
+      <c r="E135" t="s">
+        <v>114</v>
       </c>
       <c r="F135" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="D136" t="s">
+        <v>115</v>
+      </c>
+      <c r="E136" t="s">
+        <v>115</v>
       </c>
       <c r="F136" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="D137" t="s">
+        <v>116</v>
+      </c>
+      <c r="E137" t="s">
+        <v>116</v>
       </c>
       <c r="F137" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="D138" t="s">
+        <v>117</v>
+      </c>
+      <c r="E138" t="s">
+        <v>117</v>
       </c>
       <c r="F138" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="D139" t="s">
+        <v>118</v>
+      </c>
+      <c r="E139" t="s">
+        <v>118</v>
       </c>
       <c r="F139" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="D140" t="s">
+        <v>119</v>
+      </c>
+      <c r="E140" t="s">
+        <v>119</v>
       </c>
       <c r="F140" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="D141" t="s">
+        <v>120</v>
+      </c>
+      <c r="E141" t="s">
+        <v>120</v>
       </c>
       <c r="F141" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="D142" t="s">
+        <v>121</v>
+      </c>
+      <c r="E142" t="s">
+        <v>121</v>
       </c>
       <c r="F142" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <f>COUNTIF(A3:A142,"*")</f>
-        <v>105</v>
-      </c>
-      <c r="B143">
-        <f t="shared" ref="B143:F143" si="0">COUNTIF(B3:B142,"*")</f>
-        <v>98</v>
-      </c>
-      <c r="C143">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="D143">
-        <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="E143">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="F143">
-        <f t="shared" si="0"/>
-        <v>139</v>
+      <c r="A143" t="s">
+        <v>116</v>
+      </c>
+      <c r="D143" t="s">
+        <v>116</v>
+      </c>
+      <c r="E143" t="s">
+        <v>116</v>
+      </c>
+      <c r="F143" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>122</v>
+      </c>
+      <c r="D144" t="s">
+        <v>122</v>
+      </c>
+      <c r="E144" t="s">
+        <v>122</v>
+      </c>
+      <c r="F144" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>123</v>
+      </c>
+      <c r="D145" t="s">
+        <v>123</v>
+      </c>
+      <c r="E145" t="s">
+        <v>123</v>
+      </c>
+      <c r="F145" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f>COUNTIF(A3:A145,"*")</f>
+        <v>106</v>
+      </c>
+      <c r="B146">
+        <f>COUNTIF(B3:B145,"*")</f>
+        <v>99</v>
+      </c>
+      <c r="C146">
+        <f>COUNTIF(C3:C145,"*")</f>
+        <v>115</v>
+      </c>
+      <c r="D146">
+        <f>COUNTIF(D3:D145,"*")</f>
+        <v>143</v>
+      </c>
+      <c r="E146">
+        <f>COUNTIF(E3:E145,"*")</f>
+        <v>143</v>
+      </c>
+      <c r="F146">
+        <f>COUNTIF(F3:F145,"*")</f>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B37:B103 B3:C15 B143:C1048576 B17:C34 C35:C113">
-    <cfRule type="duplicateValues" dxfId="35" priority="35"/>
+  <conditionalFormatting sqref="B43:B100 A132 B102:B107 B3:C13 B19:C19 B21:B37 B40 C21:C117 B14 B165:C1048576 B144:C162">
+    <cfRule type="duplicateValues" dxfId="76" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C16 F16">
-    <cfRule type="duplicateValues" dxfId="34" priority="32"/>
+  <conditionalFormatting sqref="B20:C20">
+    <cfRule type="duplicateValues" dxfId="75" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A117:A129 A139:A142">
-    <cfRule type="duplicateValues" dxfId="33" priority="30"/>
+  <conditionalFormatting sqref="A117:A129">
+    <cfRule type="duplicateValues" dxfId="74" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B142">
-    <cfRule type="duplicateValues" dxfId="32" priority="28"/>
+  <conditionalFormatting sqref="B108:B142">
+    <cfRule type="duplicateValues" dxfId="73" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B142">
-    <cfRule type="duplicateValues" dxfId="31" priority="27"/>
+  <conditionalFormatting sqref="B108:B142">
+    <cfRule type="duplicateValues" dxfId="72" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C114:C142">
-    <cfRule type="duplicateValues" dxfId="30" priority="26"/>
+  <conditionalFormatting sqref="C118:C142">
+    <cfRule type="duplicateValues" dxfId="71" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16 E16:E17">
-    <cfRule type="duplicateValues" dxfId="29" priority="21"/>
+  <conditionalFormatting sqref="D20 E20:E21">
+    <cfRule type="duplicateValues" dxfId="70" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E127:E128 D126:D128 D129:E144">
-    <cfRule type="duplicateValues" dxfId="28" priority="20"/>
+  <conditionalFormatting sqref="D130:D145 D146:F146 E131:E145">
+    <cfRule type="duplicateValues" dxfId="69" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D145:E1048576 D3:E15 D17:D103 E18:E104 D114:D125 E115:E126">
-    <cfRule type="duplicateValues" dxfId="27" priority="127"/>
+  <conditionalFormatting sqref="E22:E108 D3:E13 D19:E19 D21:D107 D118:D129 E119:E130 E14">
+    <cfRule type="duplicateValues" dxfId="68" priority="167"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:E15 D17:D103 E18:E104 D114:D125 E115:E126">
-    <cfRule type="duplicateValues" dxfId="26" priority="139"/>
+  <conditionalFormatting sqref="D108:D117">
+    <cfRule type="duplicateValues" dxfId="67" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D104:D113">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+  <conditionalFormatting sqref="D133:E145">
+    <cfRule type="duplicateValues" dxfId="66" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D129:E142">
-    <cfRule type="duplicateValues" dxfId="24" priority="16"/>
+  <conditionalFormatting sqref="A30:A34">
+    <cfRule type="duplicateValues" dxfId="65" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:A24">
-    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
+  <conditionalFormatting sqref="A30:A34">
+    <cfRule type="duplicateValues" dxfId="64" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:A24">
-    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+  <conditionalFormatting sqref="A47:A48">
+    <cfRule type="duplicateValues" dxfId="63" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F9 A10:A19 B10:F15 B16:D103 E115:E128 B104:C128 A25:A34 A37:A103 A117:A1048576 D114:D128 E16:E104 F16:F128 B129:F1048576">
-    <cfRule type="duplicateValues" dxfId="21" priority="215"/>
+  <conditionalFormatting sqref="A47:A48">
+    <cfRule type="duplicateValues" dxfId="62" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
+  <conditionalFormatting sqref="A47:A48">
+    <cfRule type="duplicateValues" dxfId="61" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
+  <conditionalFormatting sqref="A110:A116 A141:A145">
+    <cfRule type="duplicateValues" dxfId="60" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
+  <conditionalFormatting sqref="A110 A141:A145">
+    <cfRule type="duplicateValues" dxfId="59" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A143:A151 A3:C4 B5:C15 C104:C113 B17:C103 A5:A19 A25:A34 A37:A103 A130:A138 B143:F143">
-    <cfRule type="duplicateValues" dxfId="17" priority="221"/>
+  <conditionalFormatting sqref="E109:E118">
+    <cfRule type="duplicateValues" dxfId="58" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A143:A151 A3:C9 B10:C15 F17:F142 C104:C113 B17:C103 A10:A19 A25:A34 A37:A103 A130:A138 F3:F15 B143:F143">
-    <cfRule type="duplicateValues" dxfId="16" priority="230"/>
+  <conditionalFormatting sqref="E109:E118">
+    <cfRule type="duplicateValues" dxfId="57" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104:A116">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+  <conditionalFormatting sqref="A115:B117 D119:E121">
+    <cfRule type="duplicateValues" dxfId="56" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104:A116">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+  <conditionalFormatting sqref="A40:A107 A28:A37 A165:F1048576 A1:F4 A6:A9 A11:A14 A19:A22 B5:F13 B19:B37 B40:B100 A110:B113 B102:B109 C19:C113 B14 D19:D145 A146:F162 A114:C145 E14:F145">
+    <cfRule type="duplicateValues" dxfId="55" priority="316"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E105:E114">
-    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+  <conditionalFormatting sqref="A40:A107 A28:A37 F167 A148:A151 A3:F4 A6:A9 A11:A14 A19:A22 B5:F13 B19:B37 B40:B100 A110:B113 B102:B109 C19:C113 B14 D19:D145 A146:F146 A114:C145 E14:F145">
+    <cfRule type="duplicateValues" dxfId="54" priority="327"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E105:E114">
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+  <conditionalFormatting sqref="A40:A107 A28:A37 A148:A151 F167 A3:F4 A6:A9 A11:A14 A19:A22 B5:F13 B19:B37 B40:B100 A110:B113 B102:B109 C19:C113 B14 D19:D145 A146:F146 A114:C145 E14:F145">
+    <cfRule type="duplicateValues" dxfId="53" priority="338"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+  <conditionalFormatting sqref="B101">
+    <cfRule type="duplicateValues" dxfId="52" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A115:F117">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+  <conditionalFormatting sqref="B101">
+    <cfRule type="duplicateValues" dxfId="51" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F115:F117">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  <conditionalFormatting sqref="B101">
+    <cfRule type="duplicateValues" dxfId="50" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F115:F117">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+  <conditionalFormatting sqref="C14:C18">
+    <cfRule type="duplicateValues" dxfId="49" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C18">
+    <cfRule type="duplicateValues" dxfId="48" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C18">
+    <cfRule type="duplicateValues" dxfId="47" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E108 D3:E13 D19:E19 D21:D107 D118:D129 E119:E130 D165:E1048576 D147:E162 E14">
+    <cfRule type="duplicateValues" dxfId="46" priority="354"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:F13 D19:D145 A14:C145 E14:F145">
+    <cfRule type="duplicateValues" dxfId="45" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="duplicateValues" dxfId="44" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D18">
+    <cfRule type="duplicateValues" dxfId="43" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D18">
+    <cfRule type="duplicateValues" dxfId="42" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D18">
+    <cfRule type="duplicateValues" dxfId="41" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D18">
+    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F146">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
